--- a/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0400/1/template_RP0400.xlsx
+++ b/TMQ6WebSolution/FrontEndSolution/CommonWebTemplate/Template/0/RP0400/1/template_RP0400.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TMQ\CommonTemplate\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0400\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TMQ改修用\TMQ_Version\TMQ6WebSolution\FrontEndSolution\CommonWebTemplate\Template\0\RP0400\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A8F0A26-DE3B-4A11-8597-7B96C6357DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C218F66-4F95-430D-86EC-222A1ECBC61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="2790" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="部門移庫一覧" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -119,6 +119,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -400,22 +403,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K2"/>
+  <dimension ref="B1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="10" max="10" width="9" style="4"/>
+    <col min="12" max="12" width="9" style="4"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="30" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G1"/>
+      <c r="J1"/>
+      <c r="L1"/>
+    </row>
+    <row r="2" spans="2:12" ht="30" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G2"/>
       <c r="I2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="J2"/>
       <c r="K2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="L2"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G3"/>
+      <c r="J3"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="G4"/>
+      <c r="J4"/>
+      <c r="L4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
